--- a/Chip U/150mV Analysis/Number of Events.xlsx
+++ b/Chip U/150mV Analysis/Number of Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Chen\Desktop\Other\GURU\Clampfit2\Chip U\150mV Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A169D93-5875-4B82-B359-297F79152392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA87250-140E-4188-960E-82E91D360130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46485" yWindow="3105" windowWidth="16455" windowHeight="8520" xr2:uid="{6D9A1C86-D149-4386-9463-DA16987C9825}"/>
+    <workbookView xWindow="42615" yWindow="3420" windowWidth="16455" windowHeight="8520" xr2:uid="{6D9A1C86-D149-4386-9463-DA16987C9825}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="5">
   <si>
     <t>Uncategorized</t>
   </si>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB547EC-91FD-41EA-AF00-0E58B7790F26}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -413,7 +413,7 @@
     <col min="3" max="3" width="14.765625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="8" width="9.23046875" customWidth="1"/>
+    <col min="6" max="9" width="9.23046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -438,6 +438,9 @@
       <c r="H1">
         <v>7</v>
       </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
@@ -465,11 +468,14 @@
         <v>13</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
         <v>16</v>
       </c>
       <c r="J2">
-        <f>SUM(B2:H2)</f>
-        <v>87</v>
+        <f>SUM(B2:I2)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -495,11 +501,14 @@
         <v>12</v>
       </c>
       <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
         <v>19</v>
       </c>
       <c r="J3">
-        <f>SUM(B3:H3)</f>
-        <v>92</v>
+        <f>SUM(B3:I3)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -524,6 +533,9 @@
       <c r="H4" t="s">
         <v>1</v>
       </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
@@ -547,6 +559,9 @@
       <c r="H5" t="s">
         <v>1</v>
       </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
@@ -570,6 +585,9 @@
       <c r="H6" t="s">
         <v>1</v>
       </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
@@ -593,6 +611,9 @@
       <c r="H7" t="s">
         <v>1</v>
       </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
@@ -616,6 +637,9 @@
       <c r="H8" t="s">
         <v>1</v>
       </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
@@ -639,6 +663,9 @@
       <c r="H9" t="s">
         <v>1</v>
       </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
@@ -660,6 +687,9 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -683,6 +713,9 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -706,6 +739,9 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -729,6 +765,9 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -752,6 +791,9 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -775,6 +817,9 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -798,10 +843,13 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -821,10 +869,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -844,10 +895,13 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -867,10 +921,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -892,8 +949,11 @@
       <c r="H20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -915,8 +975,11 @@
       <c r="H21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -938,8 +1001,11 @@
       <c r="H22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -961,8 +1027,11 @@
       <c r="H23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -984,8 +1053,11 @@
       <c r="H24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -1007,8 +1079,11 @@
       <c r="H25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -1030,8 +1105,11 @@
       <c r="H26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1131,11 @@
       <c r="H27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -1076,8 +1157,11 @@
       <c r="H28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -1099,8 +1183,11 @@
       <c r="H29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1122,8 +1209,11 @@
       <c r="H30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -1145,8 +1235,11 @@
       <c r="H31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -1168,8 +1261,11 @@
       <c r="H32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1287,11 @@
       <c r="H33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -1214,8 +1313,11 @@
       <c r="H34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -1237,8 +1339,11 @@
       <c r="H35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1365,11 @@
       <c r="H36" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -1283,8 +1391,11 @@
       <c r="H37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1417,11 @@
       <c r="H38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -1329,8 +1443,11 @@
       <c r="H39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -1352,8 +1469,11 @@
       <c r="H40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -1375,8 +1495,11 @@
       <c r="H41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -1398,8 +1521,11 @@
       <c r="H42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -1421,8 +1547,11 @@
       <c r="H43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -1444,8 +1573,11 @@
       <c r="H44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -1467,8 +1599,11 @@
       <c r="H45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -1490,8 +1625,11 @@
       <c r="H46" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -1513,8 +1651,11 @@
       <c r="H47" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -1536,8 +1677,11 @@
       <c r="H48" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -1559,8 +1703,11 @@
       <c r="H49" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -1582,8 +1729,11 @@
       <c r="H50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -1605,8 +1755,11 @@
       <c r="H51" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -1628,8 +1781,11 @@
       <c r="H52" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -1651,8 +1807,11 @@
       <c r="H53" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -1674,8 +1833,11 @@
       <c r="H54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -1697,8 +1859,11 @@
       <c r="H55" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -1720,8 +1885,11 @@
       <c r="H56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -1743,8 +1911,11 @@
       <c r="H57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -1766,8 +1937,11 @@
       <c r="H58" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -1789,8 +1963,11 @@
       <c r="H59" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -1812,8 +1989,11 @@
       <c r="H60" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -1835,8 +2015,11 @@
       <c r="H61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -1858,8 +2041,11 @@
       <c r="H62" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -1881,8 +2067,11 @@
       <c r="H63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -1904,8 +2093,11 @@
       <c r="H64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -1927,8 +2119,11 @@
       <c r="H65" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -1950,8 +2145,11 @@
       <c r="H66" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>0</v>
       </c>
@@ -1973,8 +2171,11 @@
       <c r="H67" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -1996,8 +2197,11 @@
       <c r="H68" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -2019,8 +2223,11 @@
       <c r="H69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -2042,8 +2249,11 @@
       <c r="H70" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -2065,8 +2275,11 @@
       <c r="H71" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -2088,8 +2301,11 @@
       <c r="H72" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -2111,8 +2327,11 @@
       <c r="H73" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -2134,8 +2353,11 @@
       <c r="H74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -2157,8 +2379,11 @@
       <c r="H75" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -2180,8 +2405,11 @@
       <c r="H76" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>0</v>
       </c>
@@ -2203,8 +2431,11 @@
       <c r="H77" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -2226,8 +2457,11 @@
       <c r="H78" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -2249,8 +2483,11 @@
       <c r="H79" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -2272,8 +2509,11 @@
       <c r="H80" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -2295,8 +2535,11 @@
       <c r="H81" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -2318,8 +2561,11 @@
       <c r="H82" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -2341,8 +2587,11 @@
       <c r="H83" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -2364,8 +2613,11 @@
       <c r="H84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -2387,8 +2639,11 @@
       <c r="H85" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -2410,8 +2665,11 @@
       <c r="H86" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -2433,8 +2691,11 @@
       <c r="H87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -2456,8 +2717,11 @@
       <c r="H88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -2479,8 +2743,11 @@
       <c r="H89" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>0</v>
       </c>
@@ -2502,8 +2769,11 @@
       <c r="H90" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>0</v>
       </c>
@@ -2525,8 +2795,11 @@
       <c r="H91" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
         <v>0</v>
       </c>
@@ -2548,8 +2821,11 @@
       <c r="H92" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
         <v>0</v>
       </c>
@@ -2571,8 +2847,11 @@
       <c r="H93" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
         <v>0</v>
       </c>
@@ -2594,8 +2873,11 @@
       <c r="H94" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>0</v>
       </c>
@@ -2617,8 +2899,11 @@
       <c r="H95" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
         <v>0</v>
       </c>
@@ -2640,8 +2925,11 @@
       <c r="H96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
         <v>0</v>
       </c>
@@ -2663,8 +2951,11 @@
       <c r="H97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
         <v>0</v>
       </c>
@@ -2686,8 +2977,11 @@
       <c r="H98" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
         <v>0</v>
       </c>
@@ -2709,8 +3003,11 @@
       <c r="H99" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
         <v>0</v>
       </c>
@@ -2732,8 +3029,11 @@
       <c r="H100" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
         <v>0</v>
       </c>
@@ -2755,8 +3055,11 @@
       <c r="H101" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -2778,8 +3081,11 @@
       <c r="H102" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>0</v>
       </c>
@@ -2801,8 +3107,11 @@
       <c r="H103" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
         <v>0</v>
       </c>
@@ -2824,8 +3133,11 @@
       <c r="H104" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B105" t="s">
         <v>0</v>
       </c>
@@ -2847,8 +3159,11 @@
       <c r="H105" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
         <v>0</v>
       </c>
@@ -2870,8 +3185,11 @@
       <c r="H106" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
         <v>0</v>
       </c>
@@ -2893,8 +3211,11 @@
       <c r="H107" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
         <v>0</v>
       </c>
@@ -2916,8 +3237,11 @@
       <c r="H108" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
         <v>0</v>
       </c>
@@ -2939,8 +3263,11 @@
       <c r="H109" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B110" t="s">
         <v>2</v>
       </c>
@@ -2962,8 +3289,11 @@
       <c r="H110" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B111" t="s">
         <v>2</v>
       </c>
@@ -2985,8 +3315,11 @@
       <c r="H111" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B112" t="s">
         <v>2</v>
       </c>
@@ -3005,8 +3338,11 @@
       <c r="H112" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B113" t="s">
         <v>2</v>
       </c>
@@ -3025,8 +3361,11 @@
       <c r="H113" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
         <v>2</v>
       </c>
@@ -3042,8 +3381,11 @@
       <c r="H114" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
         <v>2</v>
       </c>
@@ -3059,8 +3401,11 @@
       <c r="H115" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
         <v>2</v>
       </c>
@@ -3076,8 +3421,11 @@
       <c r="H116" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
         <v>2</v>
       </c>
@@ -3093,8 +3441,11 @@
       <c r="H117" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
         <v>2</v>
       </c>
@@ -3108,10 +3459,13 @@
         <v>2</v>
       </c>
       <c r="H118" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
         <v>2</v>
       </c>
@@ -3125,10 +3479,13 @@
         <v>2</v>
       </c>
       <c r="H119" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D120" t="s">
         <v>0</v>
       </c>
@@ -3136,10 +3493,13 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D121" t="s">
         <v>0</v>
       </c>
@@ -3147,10 +3507,13 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D122" t="s">
         <v>0</v>
       </c>
@@ -3158,10 +3521,13 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D123" t="s">
         <v>0</v>
       </c>
@@ -3169,10 +3535,13 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D124" t="s">
         <v>0</v>
       </c>
@@ -3180,10 +3549,13 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D125" t="s">
         <v>0</v>
       </c>
@@ -3191,10 +3563,13 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D126" t="s">
         <v>0</v>
       </c>
@@ -3202,233 +3577,236 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D127" t="s">
         <v>0</v>
       </c>
       <c r="E127" t="s">
         <v>0</v>
       </c>
-      <c r="H127" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D128" t="s">
         <v>2</v>
       </c>
       <c r="E128" t="s">
         <v>0</v>
       </c>
-      <c r="H128" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D129" t="s">
         <v>2</v>
       </c>
       <c r="E129" t="s">
         <v>0</v>
       </c>
-      <c r="H129" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D130" t="s">
         <v>2</v>
       </c>
       <c r="E130" t="s">
         <v>0</v>
       </c>
-      <c r="H130" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D131" t="s">
         <v>2</v>
       </c>
       <c r="E131" t="s">
         <v>0</v>
       </c>
-      <c r="H131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D132" t="s">
         <v>2</v>
       </c>
       <c r="E132" t="s">
         <v>0</v>
       </c>
-      <c r="H132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D133" t="s">
         <v>2</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
       </c>
-      <c r="H133" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D134" t="s">
         <v>2</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
       </c>
-      <c r="H134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D135" t="s">
         <v>2</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
       </c>
-      <c r="H135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D136" t="s">
         <v>2</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
       </c>
-      <c r="H136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D137" t="s">
         <v>2</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
       </c>
-      <c r="H137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D138" t="s">
         <v>2</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
       </c>
-      <c r="H138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D139" t="s">
         <v>2</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
       </c>
-      <c r="H139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D140" t="s">
         <v>2</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
       </c>
-      <c r="H140" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D141" t="s">
         <v>2</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
       </c>
-      <c r="H141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D142" t="s">
         <v>2</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
       </c>
-      <c r="H142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D143" t="s">
         <v>2</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
       </c>
-      <c r="H143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="I143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="4:9" x14ac:dyDescent="0.4">
       <c r="E144" t="s">
         <v>2</v>
       </c>
-      <c r="H144" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="I144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E145" t="s">
         <v>2</v>
       </c>
-      <c r="H145" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="I145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E146" t="s">
         <v>2</v>
       </c>
-      <c r="H146" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="H147" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="H148" t="s">
+      <c r="I146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="I147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="I148" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H148">
-    <sortCondition ref="H4:H148"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H126">
+    <sortCondition ref="H4:H126"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
